--- a/biology/Médecine/1516_en_santé_et_médecine/1516_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1516_en_santé_et_médecine/1516_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1516_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1516_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1516 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1516_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1516_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Fondation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>À Pézenas en Languedoc, réunion de la maladrerie, de deux maisons de charité et d'un établissement attesté dès 1191, pour former un « hôpital des pauvres » qui sera reconstruit en 1627 sous le nom d'hôpital Saint-Jacques et qui restera en activité jusqu’au XXe siècle[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>À Pézenas en Languedoc, réunion de la maladrerie, de deux maisons de charité et d'un établissement attesté dès 1191, pour former un « hôpital des pauvres » qui sera reconstruit en 1627 sous le nom d'hôpital Saint-Jacques et qui restera en activité jusqu’au XXe siècle.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1516_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1516_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,10 +555,12 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Dans son Utopie, Thomas More imagine un pays où, dans le respect de règles très strictes, les malades incurables ont droit à l'euthanasie[2].
-Selon certains, parmi lesquels le chroniqueur Alonso de Santa Cruz[3], Ferdinand le Catholique, roi d'Aragon, meurt empoisonné par un aphrodisiaque « à base de testicules de taureau et de cantharidine » administré par sa femme, Germaine de Foix[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dans son Utopie, Thomas More imagine un pays où, dans le respect de règles très strictes, les malades incurables ont droit à l'euthanasie.
+Selon certains, parmi lesquels le chroniqueur Alonso de Santa Cruz, Ferdinand le Catholique, roi d'Aragon, meurt empoisonné par un aphrodisiaque « à base de testicules de taureau et de cantharidine » administré par sa femme, Germaine de Foix.</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1516_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1516_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,10 +588,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Symphorien Champier (1471-1539) fait imprimer à Paris par Josse Bade sa Symphonia Platonis cum Aristotele et Galeni cum Hippocrate (« Harmonie entre Platon et Aristote et entre Galien et Hippocrate[5],[6] »).
-Première édition de la Practica in arte chirurgica, de Jean de Vigo[7],[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Symphorien Champier (1471-1539) fait imprimer à Paris par Josse Bade sa Symphonia Platonis cum Aristotele et Galeni cum Hippocrate (« Harmonie entre Platon et Aristote et entre Galien et Hippocrate, »).
+Première édition de la Practica in arte chirurgica, de Jean de Vigo,.</t>
         </is>
       </c>
     </row>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1516_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1516_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,14 +621,16 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>26 mars : Conrad Gessner (mort en 1565), naturaliste et médecin suisse[9].
-16 mai : Guglielmo Gratarolo (mort en 1568), médecin et alchimiste italien[10].
-1515[11] ou 1516[12] : Jean Wier (mort en 1588), médecin brabançon, auteur en 1563 d'un De Praestigiis daemonum et incantationibus ac venificiis libri V dans lequel, s'opposant au  Marteau des sorcières, il soutient que les apparitions démoniaques sont des illusions provoquées par une dérèglement de la bile noire[13].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>26 mars : Conrad Gessner (mort en 1565), naturaliste et médecin suisse.
+16 mai : Guglielmo Gratarolo (mort en 1568), médecin et alchimiste italien.
+1515 ou 1516 : Jean Wier (mort en 1588), médecin brabançon, auteur en 1563 d'un De Praestigiis daemonum et incantationibus ac venificiis libri V dans lequel, s'opposant au  Marteau des sorcières, il soutient que les apparitions démoniaques sont des illusions provoquées par une dérèglement de la bile noire.
 Vers 1516 :
-Realdo Colombo (mort en 1559), anatomiste lombard[14] (entre 1510 et 1520[15]).
-René Martineau (mort en 1573), médecin à Auxerre[16].</t>
+Realdo Colombo (mort en 1559), anatomiste lombard (entre 1510 et 1520).
+René Martineau (mort en 1573), médecin à Auxerre.</t>
         </is>
       </c>
     </row>
